--- a/documents/AddictO-Relationships.xlsx
+++ b/documents/AddictO-Relationships.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>a environed in b iff a is a material entity and b is an environmental system and a is located in the spatial region occupied by b and interacts with parts of b. TEST</t>
+          <t>a environed in b iff a is a material entity and b is an environmental system and a is located in the spatial region occupied by b and interacts with parts of b. TEST1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>

--- a/documents/AddictO-Relationships.xlsx
+++ b/documents/AddictO-Relationships.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>a environed in b iff a is a material entity and b is an environmental system and a is located in the spatial region occupied by b and interacts with parts of b. TEST1</t>
+          <t>a environed in b iff a is a material entity and b is an environmental system and a is located in the spatial region occupied by b and interacts with parts of b. TEST2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
